--- a/src/input/xlsx/coordenadas_gps.xlsx
+++ b/src/input/xlsx/coordenadas_gps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\projects-2025\python\inventario-gps-r0405148\src\input\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174DBCA-63A0-428B-8C5D-4C14D991F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675DDB7-882D-46CC-AF04-BA7648445B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{57E4A546-9F62-4EAF-83CC-E48FD6A5C350}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57E4A546-9F62-4EAF-83CC-E48FD6A5C350}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -44,7 +44,13 @@
     <t>y</t>
   </si>
   <si>
-    <t>zona</t>
+    <t>l</t>
+  </si>
+  <si>
+    <t>zona_number</t>
+  </si>
+  <si>
+    <t>zona_letter</t>
   </si>
 </sst>
 </file>
@@ -416,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF112380-EE33-4221-BF49-7F6EC42F7CD9}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,10 +438,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>189967</v>
       </c>
@@ -445,8 +454,11 @@
       <c r="C2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>189968</v>
       </c>
@@ -456,8 +468,11 @@
       <c r="C3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>190139</v>
       </c>
@@ -467,8 +482,11 @@
       <c r="C4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>190105</v>
       </c>
@@ -478,8 +496,11 @@
       <c r="C5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>190092</v>
       </c>
@@ -489,8 +510,11 @@
       <c r="C6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>190127</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="C7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>190141</v>
       </c>
@@ -511,8 +538,11 @@
       <c r="C8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>190143</v>
       </c>
@@ -522,8 +552,11 @@
       <c r="C9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>190145</v>
       </c>
@@ -533,8 +566,11 @@
       <c r="C10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>190165</v>
       </c>
@@ -544,8 +580,11 @@
       <c r="C11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>190169</v>
       </c>
@@ -555,8 +594,11 @@
       <c r="C12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>190197</v>
       </c>
@@ -566,8 +608,11 @@
       <c r="C13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>190179</v>
       </c>
@@ -577,8 +622,11 @@
       <c r="C14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>190191</v>
       </c>
@@ -588,8 +636,11 @@
       <c r="C15">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>190224</v>
       </c>
@@ -599,8 +650,11 @@
       <c r="C16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>190233</v>
       </c>
@@ -610,8 +664,11 @@
       <c r="C17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>190210</v>
       </c>
@@ -621,8 +678,11 @@
       <c r="C18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>190223</v>
       </c>
@@ -632,8 +692,11 @@
       <c r="C19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>190241</v>
       </c>
@@ -643,8 +706,11 @@
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>190472</v>
       </c>
@@ -654,8 +720,11 @@
       <c r="C21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>190530</v>
       </c>
@@ -665,8 +734,11 @@
       <c r="C22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>190610</v>
       </c>
@@ -676,8 +748,11 @@
       <c r="C23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>190948</v>
       </c>
@@ -687,8 +762,11 @@
       <c r="C24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>190970</v>
       </c>
@@ -698,8 +776,11 @@
       <c r="C25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>191114</v>
       </c>
@@ -709,8 +790,11 @@
       <c r="C26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>191116</v>
       </c>
@@ -720,8 +804,11 @@
       <c r="C27">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>191139</v>
       </c>
@@ -731,8 +818,11 @@
       <c r="C28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>191146</v>
       </c>
@@ -742,8 +832,11 @@
       <c r="C29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>191196</v>
       </c>
@@ -753,8 +846,11 @@
       <c r="C30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>191213</v>
       </c>
@@ -764,8 +860,11 @@
       <c r="C31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>191268</v>
       </c>
@@ -775,8 +874,11 @@
       <c r="C32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>191271</v>
       </c>
@@ -786,8 +888,11 @@
       <c r="C33">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>191600</v>
       </c>
@@ -797,8 +902,11 @@
       <c r="C34">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>191711</v>
       </c>
@@ -807,6 +915,9 @@
       </c>
       <c r="C35">
         <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
